--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="DC" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>Pass, But take too much time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeautifulArray</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -426,6 +430,11 @@
       </c>
       <c r="B2" s="3"/>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -437,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="DC" sheetId="1" r:id="rId1"/>
-    <sheet name="Description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -29,23 +28,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>One Pass</t>
+    <t>BeautifulArray</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pass, But Not One Pass, Need Reconsider</t>
+    <t>花费时间太长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Not Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass, But take too much time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeautifulArray</t>
+    <t>DiffWaysToCompute</t>
+  </si>
+  <si>
+    <t>花费时间长，开始有错误，几次才修复好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -53,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,14 +62,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,13 +84,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,12 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -406,23 +387,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -432,47 +415,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -41,6 +41,16 @@
   <si>
     <t>花费时间长，开始有错误，几次才修复好</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindKthLargest</t>
+  </si>
+  <si>
+    <t>错误较多，没有一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchMatrix</t>
   </si>
 </sst>
 </file>
@@ -387,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -429,6 +439,19 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DC" sheetId="1" r:id="rId1"/>
+    <sheet name="Devide&amp;Conquer" sheetId="1" r:id="rId1"/>
+    <sheet name="Heap" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -51,13 +52,41 @@
   </si>
   <si>
     <t>SearchMatrix</t>
+  </si>
+  <si>
+    <t>LastStoneWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KthLargest</t>
+  </si>
+  <si>
+    <t>还是有错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KClosest</t>
+  </si>
+  <si>
+    <t>思考比较透彻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrequencySort</t>
+  </si>
+  <si>
+    <t>第一次性能不够好, 改为StringBuilder就好了，不是核心问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopKFrequent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +101,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +133,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -111,12 +152,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -399,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -457,4 +500,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -80,6 +80,13 @@
   </si>
   <si>
     <t>TopKFrequent</t>
+  </si>
+  <si>
+    <t>KthSmallest</t>
+  </si>
+  <si>
+    <t>低级bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,10 +511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,6 +557,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>低级bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindKthLargest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,6 +569,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Devide&amp;Conquer" sheetId="1" r:id="rId1"/>
     <sheet name="Heap" sheetId="2" r:id="rId2"/>
+    <sheet name="Sort" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -68,28 +69,86 @@
     <t>KClosest</t>
   </si>
   <si>
+    <t>FrequencySort</t>
+  </si>
+  <si>
+    <t>第一次性能不够好, 改为StringBuilder就好了，不是核心问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopKFrequent</t>
+  </si>
+  <si>
+    <t>KthSmallest</t>
+  </si>
+  <si>
+    <t>低级bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindKthLargest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>思考比较透彻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FrequencySort</t>
-  </si>
-  <si>
-    <t>第一次性能不够好, 改为StringBuilder就好了，不是核心问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopKFrequent</t>
-  </si>
-  <si>
-    <t>KthSmallest</t>
-  </si>
-  <si>
-    <t>低级bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindKthLargest</t>
+    <t>思考比较透彻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortArrayByParityII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过，可能还有更好的解法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelativeSortArray</t>
+  </si>
+  <si>
+    <t>慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串交错的算法不熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NthSuperUglyNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPossible</t>
+  </si>
+  <si>
+    <t>RearrangeBarcodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReorganizeString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和ReorganizeString基本一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NthUglyNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误较多，多次才解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误较多，多次才解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何组织heap想的不透彻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +177,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +216,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -163,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -171,6 +243,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,13 +531,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,13 +545,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -485,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -493,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -501,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -515,24 +589,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -540,38 +614,81 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -579,4 +696,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Devide&amp;Conquer" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -149,6 +149,117 @@
   </si>
   <si>
     <t>如何组织heap想的不透彻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSmallestPairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过，但是还有其他更简洁的算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllCellsDistOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意细节，注意基础算法(QuickSort)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LargestPerimeter</t>
+  </si>
+  <si>
+    <t>太简单了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersection</t>
+  </si>
+  <si>
+    <t>IsAnagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersection2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindLongestWord</t>
+  </si>
+  <si>
+    <t>算法证明是关键，没有一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有一遍过, Contains方法i没有正确移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PancakeSort</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsertionSortList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过, 同InsertionSortList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好读题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WiggleSortII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LargestNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误太多了，并且还需要继续优化，还得试试分解为单个数字的算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContainsDuplicateIII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到合适的算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到合适的算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +333,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -235,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -245,6 +368,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -589,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -691,6 +816,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -700,16 +833,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -728,6 +861,124 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Devide&amp;Conquer" sheetId="1" r:id="rId1"/>
     <sheet name="Heap" sheetId="2" r:id="rId2"/>
     <sheet name="Sort" sheetId="3" r:id="rId3"/>
+    <sheet name="LinkedList" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -255,11 +256,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没有找到合适的算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有找到合适的算法</t>
+    <t>没有找到合适的算法, 排序后将后一半的元素插入到前一半中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">没有找到合适的算法, BinarySearchTree </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor Ceiling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理解, Bucket Sort</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiddleNode</t>
+  </si>
+  <si>
+    <t>简单, 一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetIntersectionNode</t>
+  </si>
+  <si>
+    <t>有点小问题，过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +329,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -341,7 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -982,5 +1030,43 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Heap" sheetId="2" r:id="rId2"/>
     <sheet name="Sort" sheetId="3" r:id="rId3"/>
     <sheet name="LinkedList" sheetId="4" r:id="rId4"/>
+    <sheet name="Tree" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -299,6 +300,91 @@
   </si>
   <si>
     <t>有点小问题，过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextLargerNodes</t>
+  </si>
+  <si>
+    <t>没有一遍过，有点难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumComponents</t>
+  </si>
+  <si>
+    <t>好好读题，这个不难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddTwoNumbers</t>
+  </si>
+  <si>
+    <t>有点小错，过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OddEvenList</t>
+  </si>
+  <si>
+    <t>没有一遍过，考虑不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitListToParts</t>
+  </si>
+  <si>
+    <t>基本没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveNthFromEnd</t>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReorderList</t>
+  </si>
+  <si>
+    <t>DetectCycle</t>
+  </si>
+  <si>
+    <t>想的透彻并证明了算法, 关键是余数和取模的深刻理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotateRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没用一遍过，不难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyRandomList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BstToGst</t>
+  </si>
+  <si>
+    <t>一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveZeroSumSubList</t>
+  </si>
+  <si>
+    <t>不会，没找到解法，核心是为0的之前之后元素在字典中Key相同，之后的元素覆盖之前的元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1036,16 +1122,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1062,6 +1148,127 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Devide&amp;Conquer" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -387,12 +387,87 @@
     <t>不会，没找到解法，核心是为0的之前之后元素在字典中Key相同，之后的元素覆盖之前的元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RangeSumBST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MergeTrees</t>
+  </si>
+  <si>
+    <t>InsertIntoBst</t>
+  </si>
+  <si>
+    <t>ConstructMaximumBinaryTree</t>
+  </si>
+  <si>
+    <t>PruneTree</t>
+  </si>
+  <si>
+    <t>BstFromPreorder</t>
+  </si>
+  <si>
+    <t>是否还可以简化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructFromPrePost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindBottomLeftValue</t>
+  </si>
+  <si>
+    <t>CBTInserter</t>
+  </si>
+  <si>
+    <t>没有一遍过，问题值得注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubTreeWithAllDeepest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcaDeepestLeaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过, 同LcaDeepestLeaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindFrequentTreeSum</t>
+  </si>
+  <si>
+    <t>不是一遍过，但是问题不大，过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrintTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要想当然，每行代码都要确认是正确的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSTIterator</t>
+  </si>
+  <si>
+    <t>IsCompleteTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +503,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -492,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -504,6 +585,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1124,7 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1255,13 +1337,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
@@ -1269,6 +1355,134 @@
       </c>
       <c r="B1" s="6" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -460,6 +460,42 @@
   </si>
   <si>
     <t>IsCompleteTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddOneRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallestFromLeaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有一遍过，考虑的还不全面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumNumbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flatten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZigZagLevelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreOrder and Inorder Traverse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,16 +1373,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1477,12 +1514,63 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Devide&amp;Conquer" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="Sort" sheetId="3" r:id="rId3"/>
     <sheet name="LinkedList" sheetId="4" r:id="rId4"/>
     <sheet name="Tree" sheetId="5" r:id="rId5"/>
+    <sheet name="UF" sheetId="6" r:id="rId6"/>
+    <sheet name="Graph" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="142">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -496,6 +498,82 @@
   </si>
   <si>
     <t>PreOrder and Inorder Traverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionsBySlashes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union一个重要细节有问题, 必须注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveStones</t>
+  </si>
+  <si>
+    <t>FindCycleNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题同FindCycleNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindRedundantConntion</t>
+  </si>
+  <si>
+    <t>一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalcEquation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏了最重要的Union步骤，这个还停容易出错的，还需要仔细看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountMerge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode有bug，算法不能证明是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlipEquiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllPossibleFBT</t>
+  </si>
+  <si>
+    <t>DelNodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquationsPossible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallestStringWithSwaps</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +625,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +674,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -609,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -622,6 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1373,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1573,9 +1658,130 @@
         <v>121</v>
       </c>
     </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="146">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -574,6 +574,22 @@
   </si>
   <si>
     <t>Surrounded Regions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过，还得进行路径压缩，不然性能过不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy, 过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindJudge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1685,24 +1701,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>125</v>
       </c>
@@ -1710,7 +1727,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -1718,7 +1735,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>127</v>
       </c>
@@ -1726,7 +1743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>129</v>
       </c>
@@ -1734,7 +1751,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
         <v>131</v>
       </c>
@@ -1742,7 +1759,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>137</v>
       </c>
@@ -1750,18 +1767,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1774,12 +1800,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="UF" sheetId="6" r:id="rId6"/>
     <sheet name="Graph" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="150">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -592,11 +592,27 @@
     <t>FindJudge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CanVisitAllRooms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindRedundantConnection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1009,7 +1025,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
@@ -1073,7 +1089,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.5" bestFit="1" customWidth="1"/>
@@ -1192,7 +1208,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
@@ -1347,7 +1363,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
@@ -1480,7 +1496,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
@@ -1707,7 +1723,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.875" bestFit="1" customWidth="1"/>
@@ -1800,15 +1816,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1817,6 +1834,22 @@
       </c>
       <c r="B1" s="6" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="164">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -608,11 +608,66 @@
     <t>没有一遍过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Keys And Rooms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易出错,仔细看下,尤其是查找多个节点对之间的路径易出错, 涉及到多次DFS, 一次好像搞不定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsBipartite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有bug，这个算法还得好好看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventualSafeNodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑的还是不全面, 没有把可以到达环的节点也考虑进去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsBipartite</t>
+  </si>
+  <si>
+    <t>有bug，难度还好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquationsPossible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑的不全面,没有把notequation的顶点也加入到graph中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkDelayTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要marked数组, 通过weight=-1或者小于之前的weight来判断是否需要再次遍历一个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug较多, 不需要marked数组, 通过distance=-1或者小于之前的distance来判断是否需要再次遍历一个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1025,7 +1080,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
@@ -1089,7 +1144,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.5" bestFit="1" customWidth="1"/>
@@ -1208,7 +1263,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
@@ -1363,7 +1418,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
@@ -1496,7 +1551,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
@@ -1720,10 +1775,10 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.875" bestFit="1" customWidth="1"/>
@@ -1816,19 +1871,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>145</v>
       </c>
@@ -1836,20 +1892,79 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="166">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -661,6 +661,14 @@
   </si>
   <si>
     <t>bug较多, 不需要marked数组, 通过distance=-1或者小于之前的distance来判断是否需要再次遍历一个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloneGraph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有bug，没有一遍过, BFS理解还不透彻，何时设置marked是有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1871,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1967,6 +1975,14 @@
         <v>163</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -670,6 +670,41 @@
   <si>
     <t>有bug，没有一遍过, BFS理解还不透彻，何时设置marked是有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindItinerary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有bug，对题的理解不到位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanFinish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortestAlternatingPaths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindMinHeightTrees</t>
   </si>
 </sst>
 </file>
@@ -1879,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1983,6 +2018,46 @@
         <v>165</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithms/Summary.xlsx
+++ b/Algorithms/Summary.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Devide&amp;Conquer" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="Tree" sheetId="5" r:id="rId5"/>
     <sheet name="UF" sheetId="6" r:id="rId6"/>
     <sheet name="Graph" sheetId="7" r:id="rId7"/>
+    <sheet name="Recursion" sheetId="8" r:id="rId8"/>
+    <sheet name="Trie" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="197">
   <si>
     <t>MajorityElement</t>
   </si>
@@ -705,6 +707,94 @@
   </si>
   <si>
     <t>FindMinHeightTrees</t>
+  </si>
+  <si>
+    <t>KthGrammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有bug，得仔细检查算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanPartitionKSubsets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划，暂时不解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongestUnivaluePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质是Tree Graph的Level(Row) Order Traverse, 注意删除叶子节点的时候得把叶子节点从其他节点的邻接列表中也删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单级别的题一直没解出来, 尤其是找到算法的错误所在花很长时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongestWord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题理解有误，好好看题，看到题后想想大概流程，和异常情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CamelMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一遍过，match过程是关键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有一遍过，if判断的细节还得注意，两次都出错了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceWords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过，注意找的是最短匹配，记得n.Val !=null就立刻返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindMaximumXOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二遍做了还是不会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍过，和Trie关系不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribonacci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较简单, 过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeSumBST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -755,7 +845,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,6 +900,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -823,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -837,6 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1117,6 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1181,10 +1279,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1300,6 +1399,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1455,6 +1555,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1588,9 +1689,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1815,6 +1917,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1914,16 +2017,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2054,8 +2158,11 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="A16" s="13" t="s">
         <v>174</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2063,4 +2170,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>